--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s0_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.44104980002316</v>
+        <v>37.17693588083532</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2369999885559082</v>
+        <v>0.1590001583099365</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.44104980002315</v>
+        <v>37.17693588083531</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35.63858450874014</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>33.88634790002127</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39.81299701176103</v>
+        <v>32.37739353073904</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37.24751652694442</v>
+        <v>37.07084158034153</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>194.1850000000251</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>119.6040000000048</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>97.00099999999838</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103.2630000000063</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>190.9270000000051</v>
+        <v>182.4</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>190.9270000000051</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>194.185000000049</v>
+        <v>182.4</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>97.00099999999838</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
